--- a/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="339">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T10:42:30+00:00</t>
+    <t>2022-08-30T07:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,17 +259,15 @@
     <t/>
   </si>
   <si>
-    <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports 診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP-Core仕様】画像結果レポートのプロフィール</t>
-  </si>
-  <si>
-    <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.
-患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
-【JP-Core仕様】画像結果レポートのプロフィール</t>
-  </si>
-  <si>
-    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.
-これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
-【JP-Core仕様】DiagnosticReportリソースの共通プロフィール</t>
+    <t>診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP Core仕様】画像結果レポートのプロフィール</t>
+  </si>
+  <si>
+    <t>患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
+【JP Core仕様】画像結果レポートのプロフィール</t>
+  </si>
+  <si>
+    <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
+【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -388,13 +386,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人が読める形式で提示された情報。放射線レポートの場合はレポートの所見が保持される。</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、リソースの内容を人間が解釈できる形で表現するために用いられる。すべての構造化データをエンコードする必要はないが、人間がテキストを読むだけで「臨床的に安全」になるように十分な詳細を含める必要がある。リソース定義は、臨床的安全性を確保するために、テキストの中でどのコンテンツを表現すべきかを定義することができる。放射線レポートでは少なくともレポートの所見が格納されることが期待される。また，検索可能な文字列が存在する部位としても利用されることを想定している。</t>
+  </si>
+  <si>
+    <t>放射線レポートの場合、主となる所見を表すエレメントは他のリソースエレメントには存在しない。よってこのドメインリソースを用いてレポートの少なくとも「所見」を人間が可読な状態で保持することが求められる。</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -483,14 +481,14 @@
 </t>
   </si>
   <si>
-    <t>Business identifier for report レポートを識別するビジネス識別子</t>
+    <t>レポートを識別するビジネス識別子</t>
   </si>
   <si>
     <t>実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
   </si>
   <si>
     <t>通常は診断サービスプロバイダの情報システムにより設定される。
-【JP-Core仕様】レポート番号
+【JP Core仕様】レポート番号
 （放射線情報システム(RIS)による発番が想定されるが、施設によって電子カルテ等のオーダ番号を使う場合もあり得る）</t>
   </si>
   <si>
@@ -520,14 +518,14 @@
 </t>
   </si>
   <si>
-    <t>What was requested　元になった検査や診断の依頼</t>
+    <t>検査や診断の依頼の元になったもの。通常はServiceRequestあるいはCarePlan（治験や抗がん剤投与等により検査を行うことが必須の場合、根拠となった事象を追記することは制限しない）</t>
   </si>
   <si>
     <t>レポート作成サービスに対する要求の詳細</t>
   </si>
   <si>
     <t>通常は１つのリクエストに対し１つの検査結果となるが、状況によって１つのリクエストに対し複数の検査結果が要求され、複数のレポートが作成される場合もあるので注意すること。
-【JP-Core仕様】オーダ発生元の ServiceRequest または CarePlan への参照（多くの場合はServiceRequest（オーダ）が存在するが、オーダが発生しない検査も想定される。）</t>
+【JP Core仕様】オーダ発生元の ServiceRequest または CarePlan への参照（多くの場合はServiceRequest（オーダ）が存在するが、オーダが発生しない検査も想定される。）</t>
   </si>
   <si>
     <t>このエレメントによりレポートの認可をトレースしたり、レポート作成サービスに対する提案や推奨事項を追跡することができる。</t>
@@ -552,7 +550,7 @@
   </si>
   <si>
     <t>FHIRのstringsは1MBを越えてはならない（SHALL NOT）ことに留意すること。
-【JP-Core仕様】・診断レポートのステータス
+【JP Core仕様】・診断レポートのステータス
 ・定義通りの選択肢（例：preliminary 一次読影, final 二次読影（完了）等）を利用。</t>
   </si>
   <si>
@@ -591,14 +589,14 @@
 </t>
   </si>
   <si>
-    <t>Service category　サービスカテゴリー</t>
+    <t>サービスカテゴリー</t>
   </si>
   <si>
     <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
     <t>様々なカテゴリのシェーマを用いて複数のカテゴリを設定できる。 カテゴリの情報粒度はvalue setに定義されている。より詳細なフィルタリングの粒度が必要な場合はDiagnosticReport.codeのmetadata等を用いることで対応できる。
-【JP-Core仕様】放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意。</t>
+【JP Core仕様】放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意。</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -634,14 +632,14 @@
 </t>
   </si>
   <si>
-    <t>Name/Code for this diagnostic report　この診断レポートの名前/コード</t>
+    <t>この診断レポートの名前/コード</t>
   </si>
   <si>
     <t>この診断レポートを表現するコードや名称</t>
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。 場合によっては、モデルにcodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と事前調整および事後調整を管理するための独自の構造を提供する必要がある。 
-【JP-Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定</t>
+【JP Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -682,14 +680,14 @@
 </t>
   </si>
   <si>
-    <t>The subject of the report - usually, but not always, the patient 　レポートの対象、常にではないが、通常は患者</t>
+    <t>レポートの対象、常にではないが、通常は患者</t>
   </si>
   <si>
     <t>レポートの対象。 必ずでは無いが、通常、これには「患者」が該当する。</t>
   </si>
   <si>
     <t>参照は実際のFHIRリソースへの参照であり、解決可能である必要がある。解決はURLから取得するか、または、リソースタイプが利用できる場合は絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索する。
-【JP-Core仕様】Patient リソースを参照</t>
+【JP Core仕様】Patient リソースを参照</t>
   </si>
   <si>
     <t>対象のコンテキストが必要である。</t>
@@ -718,14 +716,14 @@
 </t>
   </si>
   <si>
-    <t>Health care event when test ordered　依頼時におけるヘルスケアイベント（受診など）</t>
+    <t>依頼時におけるヘルスケアイベント（受診など）</t>
   </si>
   <si>
     <t>この診断レポートが関するヘルスケアイベント。</t>
   </si>
   <si>
     <t>これは通常、レポートの作成が発生するエンカウンターだが、一部のイベントはエンカウンターの正式な完了の前または後に開始される場合がある（例えば入院前の検査）。その場合でも（入院に関連して検査が行われる場合など）、エンカウンターのコンテキストに関連付けられる。
-【JP-Core仕様】このレポートを書く切っ掛けとなる Encounterリソース（例：術前検査の場合、術前訪問） を参照</t>
+【JP Core仕様】このレポートを書く切っ掛けとなる Encounterリソース（例：術前検査の場合、術前訪問） を参照</t>
   </si>
   <si>
     <t>Encounterコンテキストへのリンクが必要である</t>
@@ -754,14 +752,14 @@
 </t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for report　臨床的に関連する時刻または時間</t>
+    <t>臨床的に関連する時刻または時間</t>
   </si>
   <si>
     <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、読影開始の時間であり、日付/時刻自体のみが提供される。</t>
   </si>
   <si>
     <t>診断手順が患者に対して実行された場合、これは実行された時間を示す。
-【JP-Core仕様】レポート作成日時
+【JP Core仕様】レポート作成日時
 （DateTimeを採用し、Periodは不使用）</t>
   </si>
   <si>
@@ -791,14 +789,14 @@
 </t>
   </si>
   <si>
-    <t>DateTime this version was made　このバージョンが作成された日時</t>
+    <t>このバージョンが作成された日時</t>
   </si>
   <si>
     <t>このバージョンのレポートがプロバイダーに提供された日時。通常、レポートがレビューおよび検証された後になる。</t>
   </si>
   <si>
     <t>リソース自体の更新時間とは異なる場合がある。これは、レポートの実際のリリース時間ではなく、レコード（場合によってはセカンダリコピー）のステータスであるため。
-【JP-Core仕様】レポート確定日時</t>
+【JP Core仕様】レポート確定日時</t>
   </si>
   <si>
     <t>臨床医は、レポートがリリースされた日付を確認できる必要がある。</t>
@@ -820,18 +818,18 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner)
 </t>
   </si>
   <si>
-    <t>Responsible Diagnostic Service　レポート内容に責任をもつ診断的サービス</t>
+    <t>レポート内容に責任をもつ診断的サービス</t>
   </si>
   <si>
     <t>レポートの発行を担当するもの。</t>
   </si>
   <si>
     <t>臨床診断レポートに対して責任を持つもの.
-【JP-Core仕様】レポート確定者
+【JP Core仕様】レポート確定者
 （責任としては performer &gt; resultsInterpreter という関係性）</t>
   </si>
   <si>
@@ -857,14 +855,14 @@
 Reported by</t>
   </si>
   <si>
-    <t>Primary result interpreter　結果の一次解釈者</t>
+    <t>結果の一次解釈者</t>
   </si>
   <si>
     <t>レポートの結論や読影に関わる医師や組織</t>
   </si>
   <si>
     <t>必ずしも診断レポートに対して責任を持つものを示すわけでは無い。
-【JP-Core仕様】但し、一次読影や二次読影などの役割 (Practitioner Roll) の指定方法はペンディング</t>
+【JP Core仕様】但し、一次読影や二次読影などの役割 (Practitioner Roll) の指定方法はペンディング</t>
   </si>
   <si>
     <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
@@ -877,14 +875,11 @@
 </t>
   </si>
   <si>
-    <t>Specimens this report is based on　レポートのもとになった検体</t>
+    <t>【JP Core仕様】未使用
+・画像ガイド下生検で得られる検体の可能性は有り得るが、本項目は病理レポートで利用されることを想定し、放射線レポートでは特には規定しない</t>
   </si>
   <si>
     <t>診断レポートの対象となる検体</t>
-  </si>
-  <si>
-    <t>【JP-Core仕様】未使用
-・画像ガイド下生検で得られる検体の可能性は有り得るが、本項目は病理レポートで利用されることを想定し、放射線レポートでは特には規定しない</t>
   </si>
   <si>
     <t>レポートの対象となる取集された検体についての情報をレポートできる必要がある。</t>
@@ -904,14 +899,14 @@
 </t>
   </si>
   <si>
-    <t>Observations　検査結果</t>
+    <t>【JP Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
   </si>
   <si>
     <t>診断レポートの一部となるObservationリソース</t>
   </si>
   <si>
     <t>Observationはさらにobservationを含むことができる。
-【JP-Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
+【JP Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
   </si>
   <si>
     <t>結果のグループ化が任意だが、意味のある個別の結果または結果のグループをサポートする必要がある。</t>
@@ -930,13 +925,13 @@
 </t>
   </si>
   <si>
-    <t>Reference to full details of imaging associated with the diagnostic report　診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
+    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
   </si>
   <si>
     <t>実行された画像検査の完全な詳細に関する1つあるいは複数のリンク。通常、これは DICOM対応モダリティによって実行されるイメージングだが、DICOMであることが必須ではない。完全に有効な PACS ビューアは、この情報を使用してソース イメージのビューを提供できる。</t>
   </si>
   <si>
-    <t>【JP-Core仕様】・対象となるImagingStudyリソースを参照
+    <t>【JP Core仕様】・対象となるImagingStudyリソースを参照
 ・放射線レポートでは検査実施後には必須（複数もあり得る）</t>
   </si>
   <si>
@@ -954,13 +949,13 @@
 </t>
   </si>
   <si>
-    <t>Key images associated with this report　このレポートに関連づけられたキー画像</t>
+    <t>このレポートに関連づけられたキー画像</t>
   </si>
   <si>
     <t>このレポートに関連付けられているキーイメージの一覧。</t>
   </si>
   <si>
-    <t>【JP-Core仕様】キーイメージを設定</t>
+    <t>【JP Core仕様】キーイメージを設定</t>
   </si>
   <si>
     <t>多くの診断サービスには、サービスの一部としてレポートに画像が含まれている。</t>
@@ -1020,7 +1015,7 @@
   </si>
   <si>
     <t>コメントは、画像と共に表示される。レポートでは画像の内容に関する追加の議論が、DiagnosticReport.textやDiagnosticReport.conclusionなどの他のセクションに含まれるのが一般的である。
-【JP-Core仕様】キーイメージの説明</t>
+【JP Core仕様】キーイメージの説明</t>
   </si>
   <si>
     <t>レポート作成者は、レポートに含まれる各画像についてコメントを付け加える</t>
@@ -1043,7 +1038,7 @@
   </si>
   <si>
     <t>参照は実際のFHIRリソースへの参照であり、解決可能である必要がある。解決はURLから取得するか、または、リソースタイプが利用できる場合は絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索する。
-【JP-Core仕様】キーイメージの参照先</t>
+【JP Core仕様】キーイメージの参照先</t>
   </si>
   <si>
     <t>.value.reference</t>
@@ -1056,14 +1051,14 @@
 </t>
   </si>
   <si>
-    <t>Clinical conclusion (interpretation) of test results　検査結果の臨床的結論（解釈）</t>
+    <t>検査結果の臨床的結論（解釈）</t>
   </si>
   <si>
     <t>診断報告書の簡潔かつ臨床的に文脈化された要約結論(interpretation/impression)</t>
   </si>
   <si>
     <t>FHIRのstringsは1MBを越えてはならない（SHALL NOT）ことに留意すること。
-【JP-Core仕様】放射線レポートの結果/結論/インプレッションの文章を記載</t>
+【JP Core仕様】放射線レポートの結果/結論/インプレッションの文章を記載</t>
   </si>
   <si>
     <t>基本的な結果で、失われない結論を提供する必要がある。</t>
@@ -1078,14 +1073,14 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>Codes for the clinical conclusion of test results　検査結果の臨床的結論（解釈）用のコード</t>
+    <t>検査結果の臨床的結論（解釈）用のコード</t>
   </si>
   <si>
     <t>診断レポートの要約の結論 (interpretation/impression) を表す 1 つ以上のコード。</t>
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。 場合によっては、モデルにcodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と事前調整および事後調整を管理するための独自の構造を提供する必要がある。 
-【JP-Core仕様】・放射線レポートの所見の結論となるコードを設定。
+【JP Core仕様】・放射線レポートの所見の結論となるコードを設定。
 ・例えば、ICD 病名コード</t>
   </si>
   <si>
@@ -1105,14 +1100,14 @@
 </t>
   </si>
   <si>
-    <t>Entire report as issued　発行されたレポート全体</t>
+    <t>発行されたレポート全体</t>
   </si>
   <si>
     <t>診断サービスによって発行された結果全体のリッチ テキスト表現。複数の形式は許可されるが、意味的に等価である必要がある。</t>
   </si>
   <si>
     <t>"application/pdf" がこのコンテキストで最も信頼性が高く、相互運用可能なアプリケーションとして推奨される。
-【JP-Core仕様】添付するXHTMLやPDFなどの文書</t>
+【JP Core仕様】添付するXHTMLやPDFなどの文書</t>
   </si>
   <si>
     <t>臨床での再現性を担保するために、独自の完全にフォーマットされたレポートを提供可能である。</t>
@@ -1459,7 +1454,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="201.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="123.23828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2721,7 +2716,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>156</v>
       </c>
@@ -2737,7 +2732,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3621,7 +3616,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>246</v>
       </c>
@@ -3637,7 +3632,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -3734,7 +3729,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>257</v>
       </c>
@@ -3750,7 +3745,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -3881,10 +3876,10 @@
         <v>266</v>
       </c>
       <c r="M22" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -3951,7 +3946,7 @@
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>212</v>
@@ -3962,11 +3957,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3985,19 +3980,19 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4046,7 +4041,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4064,10 +4059,10 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4075,7 +4070,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4098,16 +4093,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4157,7 +4152,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4178,7 +4173,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4186,11 +4181,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4209,19 +4204,19 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4270,7 +4265,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4288,10 +4283,10 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4299,7 +4294,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4325,10 +4320,10 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4379,7 +4374,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4400,7 +4395,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4408,7 +4403,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4437,7 +4432,7 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>137</v>
@@ -4490,7 +4485,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4511,7 +4506,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4519,11 +4514,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4545,10 +4540,10 @@
         <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -4603,7 +4598,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4632,7 +4627,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4658,16 +4653,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4716,7 +4711,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4737,7 +4732,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4745,7 +4740,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4768,16 +4763,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4827,7 +4822,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>88</v>
@@ -4848,7 +4843,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4856,11 +4851,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4882,16 +4877,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -4940,7 +4935,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4958,10 +4953,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4969,7 +4964,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4995,13 +4990,13 @@
         <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5030,11 +5025,11 @@
         <v>185</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5051,7 +5046,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5069,10 +5064,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5080,7 +5075,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5103,19 +5098,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5164,7 +5159,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5182,10 +5177,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
